--- a/week6/sinatra_restful_list.xlsx
+++ b/week6/sinatra_restful_list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>HTTP Verb</t>
   </si>
@@ -74,10 +74,52 @@
     <t>/users/:id/edit</t>
   </si>
   <si>
-    <t>/users/:id/delete</t>
-  </si>
-  <si>
-    <t>/users/:id/update</t>
+    <t>PUT/PATCH</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>/users/new</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Show a specific record/item</t>
+  </si>
+  <si>
+    <t>Render a form to create new record</t>
+  </si>
+  <si>
+    <t>Create record</t>
+  </si>
+  <si>
+    <t>Render a list of all records</t>
+  </si>
+  <si>
+    <t>Render a form to edit record</t>
+  </si>
+  <si>
+    <t>Destroy a record</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>CRUD Type</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Make changes to the record (PUT:entire, PATCH:partial)</t>
   </si>
 </sst>
 </file>
@@ -401,18 +443,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,19 +466,32 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -442,21 +499,33 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -466,10 +535,16 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -477,27 +552,45 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/week6/sinatra_restful_list.xlsx
+++ b/week6/sinatra_restful_list.xlsx
@@ -446,7 +446,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
